--- a/biology/Médecine/Atipamézole/Atipamézole.xlsx
+++ b/biology/Médecine/Atipamézole/Atipamézole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atipam%C3%A9zole</t>
+          <t>Atipamézole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'atipamézole est un α2-antagoniste utilisé en médecine vétérinaire pour antagoniser les α2-agonistes. Il peut également servir d'antidote lors d'intoxications à l'amitraze (utilisé notamment dans le traitement de l'infestation par Demodex sp.).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atipam%C3%A9zole</t>
+          <t>Atipamézole</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Utilisation / Posologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atipamézole inhibe les récepteurs α2-adrénergiques et contre ainsi les effets des α2-agonistes. L'atipamézole diminue la pression sanguine, rétablit les paramètres cardio-pulmonaires et annihile leur effet sédanalgésique.Chez le chien et le chat, l'atipamézole est utilisé à la dose de 50  à   400 μg·kg-1 par voie intramusculaire. Pour antagoniser la médétomidine, il est recommandé d'injecter le même volume d'atipamézole que de médétomidine.L'atipamézole s'administre au moins 15 à 20 minutes après l'administration d'α2-agoniste.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atipam%C3%A9zole</t>
+          <t>Atipamézole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Effets secondaires / Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'atipamézole induit une levée de l'inhibition du système nerveux sympathique et peut provoquer des vomissements, de la diarrhée, tachycardie, tachypnée, hypersalivation et excitation.
 Aucune contre-indication absolue n'a été identifiée.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atipam%C3%A9zole</t>
+          <t>Atipamézole</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est déconseillé d'administrer des α1-bloquants en raison de la potentielle action de l'atipamézole sur les récepteurs adrénergiques α1.
 </t>
